--- a/fhir/ValueSet-BulkingMaterialeDUGA.xlsx
+++ b/fhir/ValueSet-BulkingMaterialeDUGA.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.8</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-BulkingMaterialeDUGA.xlsx
+++ b/fhir/ValueSet-BulkingMaterialeDUGA.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>2.9.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-BulkingMaterialeDUGA.xlsx
+++ b/fhir/ValueSet-BulkingMaterialeDUGA.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.0</t>
+    <t>2.9.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-BulkingMaterialeDUGA.xlsx
+++ b/fhir/ValueSet-BulkingMaterialeDUGA.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.1</t>
+    <t>2.9.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -67,13 +67,13 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Sundhedsvæsnets Kvalistetsinstitut with Trifork Digital Health A/S</t>
+    <t>Sundhedsvæsenets Kvalitetsinstitut with Trifork Digital Health A/S</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Sundhedsvæsnets Kvalistetsinstitut with Trifork Digital Health A/S (https://trifork.com, rbk@trifork.com)</t>
+    <t>Sundhedsvæsenets Kvalitetsinstitut with Trifork Digital Health A/S (https://trifork.com, rbk@trifork.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/fhir/ValueSet-BulkingMaterialeDUGA.xlsx
+++ b/fhir/ValueSet-BulkingMaterialeDUGA.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.3</t>
+    <t>2.9.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-BulkingMaterialeDUGA.xlsx
+++ b/fhir/ValueSet-BulkingMaterialeDUGA.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.4</t>
+    <t>2.9.8</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-BulkingMaterialeDUGA.xlsx
+++ b/fhir/ValueSet-BulkingMaterialeDUGA.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.8</t>
+    <t>2.11.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-BulkingMaterialeDUGA.xlsx
+++ b/fhir/ValueSet-BulkingMaterialeDUGA.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.1</t>
+    <t>2.11.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-BulkingMaterialeDUGA.xlsx
+++ b/fhir/ValueSet-BulkingMaterialeDUGA.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.2</t>
+    <t>2.11.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-BulkingMaterialeDUGA.xlsx
+++ b/fhir/ValueSet-BulkingMaterialeDUGA.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.3</t>
+    <t>2.11.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-BulkingMaterialeDUGA.xlsx
+++ b/fhir/ValueSet-BulkingMaterialeDUGA.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.4</t>
+    <t>2.11.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-BulkingMaterialeDUGA.xlsx
+++ b/fhir/ValueSet-BulkingMaterialeDUGA.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.5</t>
+    <t>2.11.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-BulkingMaterialeDUGA.xlsx
+++ b/fhir/ValueSet-BulkingMaterialeDUGA.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.6</t>
+    <t>2.12.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-BulkingMaterialeDUGA.xlsx
+++ b/fhir/ValueSet-BulkingMaterialeDUGA.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.0</t>
+    <t>2.12.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-BulkingMaterialeDUGA.xlsx
+++ b/fhir/ValueSet-BulkingMaterialeDUGA.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.1</t>
+    <t>2.12.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-BulkingMaterialeDUGA.xlsx
+++ b/fhir/ValueSet-BulkingMaterialeDUGA.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.2</t>
+    <t>2.13.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-BulkingMaterialeDUGA.xlsx
+++ b/fhir/ValueSet-BulkingMaterialeDUGA.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.13.0</t>
+    <t>2.14.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-BulkingMaterialeDUGA.xlsx
+++ b/fhir/ValueSet-BulkingMaterialeDUGA.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.0</t>
+    <t>2.14.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-BulkingMaterialeDUGA.xlsx
+++ b/fhir/ValueSet-BulkingMaterialeDUGA.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.1</t>
+    <t>2.14.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-BulkingMaterialeDUGA.xlsx
+++ b/fhir/ValueSet-BulkingMaterialeDUGA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.2</t>
+    <t>2.15.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -100,13 +100,22 @@
     <t>Concept</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Macroplastik</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Deflux</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>Bulkamid</t>
-  </si>
-  <si>
-    <t>Deflux</t>
-  </si>
-  <si>
-    <t>Macroplastik</t>
   </si>
   <si>
     <t>System URI</t>
@@ -411,23 +420,23 @@
         <v>28</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -440,10 +449,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -473,10 +482,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -489,10 +498,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/ValueSet-BulkingMaterialeDUGA.xlsx
+++ b/fhir/ValueSet-BulkingMaterialeDUGA.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.15.0</t>
+    <t>2.16.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-BulkingMaterialeDUGA.xlsx
+++ b/fhir/ValueSet-BulkingMaterialeDUGA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.16.0</t>
+    <t>2.17.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -100,22 +100,13 @@
     <t>Concept</t>
   </si>
   <si>
-    <t>1</t>
+    <t>Bulkamid</t>
+  </si>
+  <si>
+    <t>Deflux</t>
   </si>
   <si>
     <t>Macroplastik</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Deflux</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Bulkamid</t>
   </si>
   <si>
     <t>System URI</t>
@@ -420,23 +411,23 @@
         <v>28</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -449,10 +440,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -482,10 +473,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -498,10 +489,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
